--- a/biology/Zoologie/Conure_de_Souancé/Conure_de_Souancé.xlsx
+++ b/biology/Zoologie/Conure_de_Souancé/Conure_de_Souancé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conure_de_Souanc%C3%A9</t>
+          <t>Conure_de_Souancé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhura melanura
 La Conure de Souancé (Pyrrhura melanura) est une espèce d'oiseau appartenant au groupe des conures et à la famille des Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conure_de_Souanc%C3%A9</t>
+          <t>Conure_de_Souancé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom commémore le Commissaire de la Marine et ornithologue français Charles de Souancé (1823-1896).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conure_de_Souanc%C3%A9</t>
+          <t>Conure_de_Souancé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 24 cm. Il présente un plumage vert avec des écailles noires et blanches sur la gorge, le cou et le haut de la poitrine. La bordure des ailes est rouge avec des écailles jaunes plus ou moins marquées. Les rectrices et le plastron ventral sont rouge brique. Les cercles oculaires sont blancs et les iris bruns. Le bec et les pattes sont gris.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conure_de_Souanc%C3%A9</t>
+          <t>Conure_de_Souancé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend principalement à travers l'Ouest de l'Amazonie.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Conure_de_Souanc%C3%A9</t>
+          <t>Conure_de_Souancé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par cinq sous-espèces :
 P. m. pacifica Chapman, 1915 — sud-ouest de la Colombie et nord-ouest de l'Équateur
